--- a/excel/all.xlsx
+++ b/excel/all.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Excel</t>
   </si>
@@ -104,6 +104,9 @@
     <t>ConditionTemplateCfg</t>
   </si>
   <si>
+    <t>条件模板</t>
+  </si>
+  <si>
     <t>progress_template.xlsx</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
     <t>ProgressTemplateCfg</t>
   </si>
   <si>
+    <t>进度模板</t>
+  </si>
+  <si>
     <t>levelcfg.xlsx</t>
   </si>
   <si>
@@ -125,6 +131,9 @@
     <t>slice</t>
   </si>
   <si>
+    <t>等级配置</t>
+  </si>
+  <si>
     <t>exchange.xlsx</t>
   </si>
   <si>
@@ -134,6 +143,9 @@
     <t>ExchangeCfg</t>
   </si>
   <si>
+    <t>兑换数据</t>
+  </si>
+  <si>
     <t>questcfg.xlsx</t>
   </si>
   <si>
@@ -153,6 +165,9 @@
   </si>
   <si>
     <t>ActivityCfg</t>
+  </si>
+  <si>
+    <t>活动数据</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1326,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1397,7 +1412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1407,67 +1422,82 @@
       <c r="C4" t="s">
         <v>23</v>
       </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:3">
+    <row r="7" customFormat="1" spans="1:8">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:10">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" customFormat="1" spans="1:3">
+    <row r="9" customFormat="1" spans="1:8">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/excel/all.xlsx
+++ b/excel/all.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Excel</t>
   </si>
@@ -134,6 +134,9 @@
     <t>等级配置</t>
   </si>
   <si>
+    <t>演示数组形式的配置</t>
+  </si>
+  <si>
     <t>exchange.xlsx</t>
   </si>
   <si>
@@ -156,6 +159,27 @@
   </si>
   <si>
     <t>任务数据</t>
+  </si>
+  <si>
+    <t>shop.xlsx</t>
+  </si>
+  <si>
+    <t>ShopCfg</t>
+  </si>
+  <si>
+    <t>商店数据</t>
+  </si>
+  <si>
+    <t>演示简单的商店</t>
+  </si>
+  <si>
+    <t>achievementcfg.xlsx</t>
+  </si>
+  <si>
+    <t>成就数据</t>
+  </si>
+  <si>
+    <t>演示合并导出,NOTE:不同的表的CfgId不能重复</t>
   </si>
   <si>
     <t>activitycfg.xlsx</t>
@@ -783,9 +807,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1323,10 +1350,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1336,8 +1363,8 @@
     <col min="4" max="4" width="17.75" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
     <col min="6" max="7" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="32.75" customWidth="1"/>
-    <col min="9" max="9" width="23.75" customWidth="1"/>
+    <col min="8" max="8" width="21.125" customWidth="1"/>
+    <col min="9" max="9" width="40.875" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="62.25" customWidth="1"/>
   </cols>
@@ -1440,7 +1467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1455,49 +1482,85 @@
       </c>
       <c r="H6" t="s">
         <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:8">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:10">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" customFormat="1" spans="1:8">
+    <row r="9" customFormat="1" spans="1:10">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
         <v>44</v>
       </c>
       <c r="H9" t="s">
         <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:10">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:8">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
